--- a/ML_sourceData.xlsx
+++ b/ML_sourceData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smileyguansc/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guan.DESKTOP-0NNHDMN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="5"/>
+    <workbookView xWindow="4080" yWindow="463" windowWidth="25603" windowHeight="14803" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Fig2ab" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,13 @@
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -235,15 +235,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -251,7 +251,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -264,7 +264,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -277,7 +277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -303,20 +303,20 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -484,31 +484,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -523,16 +523,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -575,13 +575,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -593,14 +593,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -609,6 +603,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,22 +635,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -922,22 +922,22 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:10" ht="20.6" thickTop="1">
+      <c r="A1" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="32" t="s">
         <v>11</v>
       </c>
@@ -967,7 +967,7 @@
       </c>
       <c r="J2" s="32"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>0.28241036206232528</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>0.2217685482088243</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>-3.8584593612109863E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>0.16648043250702727</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="2" customFormat="1">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>1.6323957646400489E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>0.14279540764553489</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>2.2185758904075481E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="16" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>0.12115800108756811</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="17" t="s">
         <v>1</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>4.2275148343771697E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15" thickTop="1">
       <c r="A12" s="24"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1311,7 +1311,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" thickBot="1">
       <c r="A13" s="24"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1322,19 +1322,19 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="56" t="s">
+    <row r="14" spans="1:10" ht="15" thickTop="1">
+      <c r="A14" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
-      <c r="E14" s="56" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="E14" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="25" t="s">
         <v>20</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>5.6885935695111849</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="G17" s="28"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="G18" s="28"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="G19" s="28"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>6</v>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="G20" s="28"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="G21" s="28"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>3.7194023518361439</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="25" t="s">
         <v>10</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>4.2275148343771697E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" thickBot="1">
       <c r="A24" s="26" t="s">
         <v>9</v>
       </c>
@@ -1542,22 +1542,22 @@
         <v>7.3542816314186257E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="59" t="s">
+    <row r="25" spans="1:8" ht="15" thickTop="1"/>
+    <row r="26" spans="1:8" ht="15" thickBot="1"/>
+    <row r="27" spans="1:8" ht="15" thickTop="1">
+      <c r="A27" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="27"/>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="31" t="s">
         <v>27</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="34" t="s">
         <v>2</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>25.414212997295486</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="34" t="s">
         <v>3</v>
       </c>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="G30" s="28"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="34" t="s">
         <v>4</v>
       </c>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="G31" s="28"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="34" t="s">
         <v>5</v>
       </c>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="G32" s="28"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="34" t="s">
         <v>6</v>
       </c>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="G33" s="28"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="34" t="s">
         <v>7</v>
       </c>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="G34" s="28"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="34" t="s">
         <v>8</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>15.25134401265559</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="35" t="s">
         <v>10</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>0.2217685482088243</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" thickBot="1">
       <c r="A37" s="36" t="s">
         <v>9</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>0.39988918742915242</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.45" thickTop="1" thickBot="1">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
@@ -1764,20 +1764,20 @@
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
     </row>
-    <row r="39" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="59" t="s">
+    <row r="39" spans="1:7" ht="15" thickTop="1">
+      <c r="A39" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="61"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59"/>
       <c r="D39" s="27"/>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="60"/>
-      <c r="G39" s="61"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F39" s="58"/>
+      <c r="G39" s="59"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="31" t="s">
         <v>29</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="34" t="s">
         <v>2</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>61.814474043532002</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="34" t="s">
         <v>3</v>
       </c>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="G42" s="28"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="34" t="s">
         <v>4</v>
       </c>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="G43" s="28"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="34" t="s">
         <v>5</v>
       </c>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="G44" s="28"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="34" t="s">
         <v>6</v>
       </c>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G45" s="28"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="34" t="s">
         <v>7</v>
       </c>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="G46" s="28"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="34" t="s">
         <v>8</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>42.131773992981948</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="35" t="s">
         <v>10</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>0.16648043250702727</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15" thickBot="1">
       <c r="A49" s="36" t="s">
         <v>9</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>0.31841571662793378</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.45" thickTop="1" thickBot="1">
       <c r="A50" s="27"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
@@ -1984,20 +1984,20 @@
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
     </row>
-    <row r="51" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="59" t="s">
+    <row r="51" spans="1:7" ht="15" thickTop="1">
+      <c r="A51" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="60"/>
-      <c r="C51" s="61"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="59" t="s">
+      <c r="E51" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F51" s="60"/>
-      <c r="G51" s="61"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F51" s="58"/>
+      <c r="G51" s="59"/>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="31" t="s">
         <v>31</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="34" t="s">
         <v>2</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>23.488632442117876</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="34" t="s">
         <v>3</v>
       </c>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="G54" s="28"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="34" t="s">
         <v>4</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="G55" s="28"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="34" t="s">
         <v>5</v>
       </c>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="G56" s="28"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="34" t="s">
         <v>6</v>
       </c>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="G57" s="28"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="34" t="s">
         <v>7</v>
       </c>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="G58" s="28"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="34" t="s">
         <v>8</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>16.906835392596534</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="35" t="s">
         <v>10</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>0.14279540764553489</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15" thickBot="1">
       <c r="A61" s="36" t="s">
         <v>9</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>0.28021201599286838</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15.45" thickTop="1" thickBot="1">
       <c r="A62" s="27"/>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
@@ -2204,18 +2204,18 @@
       <c r="F62" s="27"/>
       <c r="G62" s="27"/>
     </row>
-    <row r="63" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="59" t="s">
+    <row r="63" spans="1:7" ht="15" thickTop="1">
+      <c r="A63" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="60"/>
-      <c r="C63" s="61"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="59"/>
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
       <c r="G63" s="27"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="31" t="s">
         <v>33</v>
       </c>
@@ -2230,7 +2230,7 @@
       <c r="F64" s="27"/>
       <c r="G64" s="27"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="34" t="s">
         <v>2</v>
       </c>
@@ -2245,7 +2245,7 @@
       <c r="F65" s="27"/>
       <c r="G65" s="27"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="34" t="s">
         <v>3</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="F66" s="27"/>
       <c r="G66" s="27"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="34" t="s">
         <v>4</v>
       </c>
@@ -2271,7 +2271,7 @@
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="34" t="s">
         <v>5</v>
       </c>
@@ -2284,7 +2284,7 @@
       <c r="F68" s="27"/>
       <c r="G68" s="27"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="34" t="s">
         <v>6</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="F69" s="27"/>
       <c r="G69" s="27"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="34" t="s">
         <v>7</v>
       </c>
@@ -2310,7 +2310,7 @@
       <c r="F70" s="27"/>
       <c r="G70" s="27"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="34" t="s">
         <v>8</v>
       </c>
@@ -2325,7 +2325,7 @@
       <c r="F71" s="27"/>
       <c r="G71" s="27"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="35" t="s">
         <v>10</v>
       </c>
@@ -2342,7 +2342,7 @@
       <c r="F72" s="27"/>
       <c r="G72" s="27"/>
     </row>
-    <row r="73" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15" thickBot="1">
       <c r="A73" s="36" t="s">
         <v>9</v>
       </c>
@@ -2359,19 +2359,19 @@
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
     </row>
-    <row r="74" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:7" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="E27:G27"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="E39:G39"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="E51:G51"/>
     <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="E27:G27"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2387,22 +2387,22 @@
       <selection activeCell="E29" sqref="E29:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:9" ht="20.6" thickTop="1">
+      <c r="A1" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="38" t="s">
         <v>11</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="40">
         <v>1</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>0.26116850916143686</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="40">
         <v>2</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>0.4160655968409519</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="40">
         <v>3</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>0.31266762534212567</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="40">
         <v>4</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>8.8659021318221676E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="41">
         <v>5</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>0.3410719056607292</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="40">
         <v>6</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>0.12383488757656824</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="40">
         <v>7</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>9.0700634538116498E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="40">
         <v>8</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>-8.1983719287550549E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="40">
         <v>9</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>0.22077758848759443</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>0.19699578329313266</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" thickBot="1">
       <c r="A13" s="42" t="s">
         <v>1</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>5.1778211909777723E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15" thickTop="1">
       <c r="A14" s="43"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2849,7 +2849,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" thickBot="1">
       <c r="A15" s="43"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2860,22 +2860,22 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="s">
+    <row r="16" spans="1:9" ht="15" thickTop="1">
+      <c r="A16" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="44"/>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="44"/>
       <c r="I16" s="44"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="35" t="s">
         <v>40</v>
       </c>
@@ -2898,7 +2898,7 @@
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="34" t="s">
         <v>2</v>
       </c>
@@ -2925,7 +2925,7 @@
       <c r="H18" s="44"/>
       <c r="I18" s="44"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="34" t="s">
         <v>3</v>
       </c>
@@ -2946,7 +2946,7 @@
       <c r="H19" s="44"/>
       <c r="I19" s="44"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="34" t="s">
         <v>4</v>
       </c>
@@ -2967,7 +2967,7 @@
       <c r="H20" s="44"/>
       <c r="I20" s="44"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="34" t="s">
         <v>5</v>
       </c>
@@ -2988,7 +2988,7 @@
       <c r="H21" s="44"/>
       <c r="I21" s="44"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="34" t="s">
         <v>6</v>
       </c>
@@ -3009,7 +3009,7 @@
       <c r="H22" s="27"/>
       <c r="I22" s="44"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="34" t="s">
         <v>7</v>
       </c>
@@ -3030,7 +3030,7 @@
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="34" t="s">
         <v>8</v>
       </c>
@@ -3057,7 +3057,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="35" t="s">
         <v>10</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
     </row>
-    <row r="26" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" thickBot="1">
       <c r="A26" s="36" t="s">
         <v>9</v>
       </c>
@@ -3111,7 +3111,7 @@
       <c r="H26" s="44"/>
       <c r="I26" s="44"/>
     </row>
-    <row r="27" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15" thickTop="1">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -3122,7 +3122,7 @@
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
     </row>
-    <row r="28" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" thickBot="1">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
@@ -3133,22 +3133,22 @@
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
     </row>
-    <row r="29" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="59" t="s">
+    <row r="29" spans="1:9" ht="15" thickTop="1">
+      <c r="A29" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="61"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="27"/>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="60"/>
-      <c r="G29" s="61"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59"/>
       <c r="H29" s="44"/>
       <c r="I29" s="44"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="31" t="s">
         <v>27</v>
       </c>
@@ -3171,7 +3171,7 @@
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="34" t="s">
         <v>2</v>
       </c>
@@ -3194,7 +3194,7 @@
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="34" t="s">
         <v>3</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="34" t="s">
         <v>4</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="34" t="s">
         <v>5</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="34" t="s">
         <v>6</v>
       </c>
@@ -3270,7 +3270,7 @@
       <c r="H35" s="44"/>
       <c r="I35" s="44"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="34" t="s">
         <v>7</v>
       </c>
@@ -3289,7 +3289,7 @@
       <c r="H36" s="44"/>
       <c r="I36" s="44"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="34" t="s">
         <v>8</v>
       </c>
@@ -3312,7 +3312,7 @@
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="35" t="s">
         <v>10</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
     </row>
-    <row r="39" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" thickBot="1">
       <c r="A39" s="36" t="s">
         <v>9</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="H39" s="44"/>
       <c r="I39" s="44"/>
     </row>
-    <row r="40" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.45" thickTop="1" thickBot="1">
       <c r="A40" s="34"/>
       <c r="B40" s="27"/>
       <c r="C40" s="28"/>
@@ -3377,22 +3377,22 @@
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
     </row>
-    <row r="41" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="59" t="s">
+    <row r="41" spans="1:9" ht="15" thickTop="1">
+      <c r="A41" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="61"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="59"/>
       <c r="D41" s="27"/>
-      <c r="E41" s="59" t="s">
+      <c r="E41" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F41" s="60"/>
-      <c r="G41" s="61"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="59"/>
       <c r="H41" s="44"/>
       <c r="I41" s="44"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="31" t="s">
         <v>29</v>
       </c>
@@ -3415,7 +3415,7 @@
       <c r="H42" s="44"/>
       <c r="I42" s="44"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="34" t="s">
         <v>2</v>
       </c>
@@ -3438,7 +3438,7 @@
       <c r="H43" s="44"/>
       <c r="I43" s="44"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="34" t="s">
         <v>3</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="H44" s="44"/>
       <c r="I44" s="44"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="34" t="s">
         <v>4</v>
       </c>
@@ -3476,7 +3476,7 @@
       <c r="H45" s="44"/>
       <c r="I45" s="44"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="34" t="s">
         <v>5</v>
       </c>
@@ -3495,7 +3495,7 @@
       <c r="H46" s="44"/>
       <c r="I46" s="44"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="34" t="s">
         <v>6</v>
       </c>
@@ -3514,7 +3514,7 @@
       <c r="H47" s="44"/>
       <c r="I47" s="44"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="34" t="s">
         <v>7</v>
       </c>
@@ -3533,7 +3533,7 @@
       <c r="H48" s="44"/>
       <c r="I48" s="44"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="34" t="s">
         <v>8</v>
       </c>
@@ -3556,7 +3556,7 @@
       <c r="H49" s="44"/>
       <c r="I49" s="44"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="35" t="s">
         <v>10</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="H50" s="44"/>
       <c r="I50" s="44"/>
     </row>
-    <row r="51" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15" thickBot="1">
       <c r="A51" s="36" t="s">
         <v>9</v>
       </c>
@@ -3610,7 +3610,7 @@
       <c r="H51" s="44"/>
       <c r="I51" s="44"/>
     </row>
-    <row r="52" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15.45" thickTop="1" thickBot="1">
       <c r="A52" s="34"/>
       <c r="B52" s="27"/>
       <c r="C52" s="28"/>
@@ -3621,22 +3621,22 @@
       <c r="H52" s="44"/>
       <c r="I52" s="44"/>
     </row>
-    <row r="53" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="59" t="s">
+    <row r="53" spans="1:9" ht="15" thickTop="1">
+      <c r="A53" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="61"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="59"/>
       <c r="D53" s="27"/>
-      <c r="E53" s="59" t="s">
+      <c r="E53" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F53" s="60"/>
-      <c r="G53" s="61"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="59"/>
       <c r="H53" s="44"/>
       <c r="I53" s="44"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="31" t="s">
         <v>31</v>
       </c>
@@ -3659,7 +3659,7 @@
       <c r="H54" s="44"/>
       <c r="I54" s="44"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="34" t="s">
         <v>2</v>
       </c>
@@ -3682,7 +3682,7 @@
       <c r="H55" s="44"/>
       <c r="I55" s="44"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="34" t="s">
         <v>3</v>
       </c>
@@ -3701,7 +3701,7 @@
       <c r="H56" s="44"/>
       <c r="I56" s="44"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="34" t="s">
         <v>4</v>
       </c>
@@ -3720,7 +3720,7 @@
       <c r="H57" s="44"/>
       <c r="I57" s="44"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="34" t="s">
         <v>5</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="H58" s="44"/>
       <c r="I58" s="44"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="34" t="s">
         <v>6</v>
       </c>
@@ -3758,7 +3758,7 @@
       <c r="H59" s="44"/>
       <c r="I59" s="44"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="34" t="s">
         <v>7</v>
       </c>
@@ -3777,7 +3777,7 @@
       <c r="H60" s="44"/>
       <c r="I60" s="44"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="34" t="s">
         <v>8</v>
       </c>
@@ -3800,7 +3800,7 @@
       <c r="H61" s="44"/>
       <c r="I61" s="44"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="35" t="s">
         <v>10</v>
       </c>
@@ -3827,7 +3827,7 @@
       <c r="H62" s="44"/>
       <c r="I62" s="44"/>
     </row>
-    <row r="63" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15" thickBot="1">
       <c r="A63" s="36" t="s">
         <v>9</v>
       </c>
@@ -3854,7 +3854,7 @@
       <c r="H63" s="44"/>
       <c r="I63" s="44"/>
     </row>
-    <row r="64" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15.45" thickTop="1" thickBot="1">
       <c r="A64" s="34"/>
       <c r="B64" s="27"/>
       <c r="C64" s="28"/>
@@ -3865,22 +3865,22 @@
       <c r="H64" s="44"/>
       <c r="I64" s="44"/>
     </row>
-    <row r="65" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="59" t="s">
+    <row r="65" spans="1:9" ht="15" thickTop="1">
+      <c r="A65" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="60"/>
-      <c r="C65" s="61"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="59"/>
       <c r="D65" s="27"/>
-      <c r="E65" s="59" t="s">
+      <c r="E65" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F65" s="60"/>
-      <c r="G65" s="61"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="59"/>
       <c r="H65" s="44"/>
       <c r="I65" s="44"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="31" t="s">
         <v>33</v>
       </c>
@@ -3903,7 +3903,7 @@
       <c r="H66" s="44"/>
       <c r="I66" s="44"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="34" t="s">
         <v>2</v>
       </c>
@@ -3926,7 +3926,7 @@
       <c r="H67" s="44"/>
       <c r="I67" s="44"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="34" t="s">
         <v>3</v>
       </c>
@@ -3945,7 +3945,7 @@
       <c r="H68" s="44"/>
       <c r="I68" s="44"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="34" t="s">
         <v>4</v>
       </c>
@@ -3964,7 +3964,7 @@
       <c r="H69" s="44"/>
       <c r="I69" s="44"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" s="34" t="s">
         <v>5</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="H70" s="44"/>
       <c r="I70" s="44"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="34" t="s">
         <v>6</v>
       </c>
@@ -4002,7 +4002,7 @@
       <c r="H71" s="44"/>
       <c r="I71" s="44"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" s="34" t="s">
         <v>7</v>
       </c>
@@ -4021,7 +4021,7 @@
       <c r="H72" s="44"/>
       <c r="I72" s="44"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="34" t="s">
         <v>8</v>
       </c>
@@ -4044,7 +4044,7 @@
       <c r="H73" s="44"/>
       <c r="I73" s="44"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" s="35" t="s">
         <v>10</v>
       </c>
@@ -4071,7 +4071,7 @@
       <c r="H74" s="44"/>
       <c r="I74" s="44"/>
     </row>
-    <row r="75" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15" thickBot="1">
       <c r="A75" s="36" t="s">
         <v>9</v>
       </c>
@@ -4098,7 +4098,7 @@
       <c r="H75" s="44"/>
       <c r="I75" s="44"/>
     </row>
-    <row r="76" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15.45" thickTop="1" thickBot="1">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -4109,12 +4109,12 @@
       <c r="H76" s="44"/>
       <c r="I76" s="44"/>
     </row>
-    <row r="77" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="59" t="s">
+    <row r="77" spans="1:9" ht="15" thickTop="1">
+      <c r="A77" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="60"/>
-      <c r="C77" s="61"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="59"/>
       <c r="D77" s="44"/>
       <c r="E77" s="44"/>
       <c r="F77" s="44"/>
@@ -4122,7 +4122,7 @@
       <c r="H77" s="44"/>
       <c r="I77" s="44"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" s="31" t="s">
         <v>39</v>
       </c>
@@ -4139,7 +4139,7 @@
       <c r="H78" s="44"/>
       <c r="I78" s="44"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" s="34" t="s">
         <v>2</v>
       </c>
@@ -4156,7 +4156,7 @@
       <c r="H79" s="44"/>
       <c r="I79" s="44"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" s="34" t="s">
         <v>3</v>
       </c>
@@ -4171,7 +4171,7 @@
       <c r="H80" s="44"/>
       <c r="I80" s="44"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81" s="34" t="s">
         <v>4</v>
       </c>
@@ -4186,7 +4186,7 @@
       <c r="H81" s="44"/>
       <c r="I81" s="44"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82" s="34" t="s">
         <v>5</v>
       </c>
@@ -4201,7 +4201,7 @@
       <c r="H82" s="44"/>
       <c r="I82" s="44"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83" s="34" t="s">
         <v>6</v>
       </c>
@@ -4216,7 +4216,7 @@
       <c r="H83" s="44"/>
       <c r="I83" s="44"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" s="34" t="s">
         <v>7</v>
       </c>
@@ -4231,7 +4231,7 @@
       <c r="H84" s="44"/>
       <c r="I84" s="44"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" s="34" t="s">
         <v>8</v>
       </c>
@@ -4248,7 +4248,7 @@
       <c r="H85" s="44"/>
       <c r="I85" s="44"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86" s="35" t="s">
         <v>10</v>
       </c>
@@ -4267,7 +4267,7 @@
       <c r="H86" s="44"/>
       <c r="I86" s="44"/>
     </row>
-    <row r="87" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15" thickBot="1">
       <c r="A87" s="36" t="s">
         <v>9</v>
       </c>
@@ -4286,7 +4286,7 @@
       <c r="H87" s="44"/>
       <c r="I87" s="44"/>
     </row>
-    <row r="88" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="15" thickTop="1">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -4325,29 +4325,29 @@
       <selection activeCell="A16" sqref="A16:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:13" ht="20.6" thickTop="1">
+      <c r="A1" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="69"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="62"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="38" t="s">
         <v>11</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="40">
         <v>1</v>
       </c>
@@ -4424,11 +4424,11 @@
         <f t="shared" ref="I3:I11" si="0">LOG10(F3)-LOG10(G3)</f>
         <v>0.32628803164313758</v>
       </c>
-      <c r="J3" s="66">
+      <c r="J3" s="56">
         <f>D32</f>
         <v>1.134635957570826</v>
       </c>
-      <c r="K3" s="66">
+      <c r="K3" s="56">
         <f>D36</f>
         <v>0.96933327221634569</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>6.8383422520494994E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="40">
         <v>2</v>
       </c>
@@ -4477,11 +4477,11 @@
         <f t="shared" si="0"/>
         <v>0.19578994500417068</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="56">
         <f>I32</f>
         <v>1.9611977275057382</v>
       </c>
-      <c r="K4" s="66">
+      <c r="K4" s="56">
         <f>I36</f>
         <v>1.0955215226849566</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>0.25290046718802695</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="40">
         <v>3</v>
       </c>
@@ -4530,11 +4530,11 @@
         <f t="shared" si="0"/>
         <v>0.23930463731201157</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="56">
         <f>D44</f>
         <v>2.2838632191661223</v>
       </c>
-      <c r="K5" s="66">
+      <c r="K5" s="56">
         <f>D48</f>
         <v>1.8488372834872933</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>9.1771399902568551E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="40">
         <v>4</v>
       </c>
@@ -4583,11 +4583,11 @@
         <f t="shared" si="0"/>
         <v>0.44053846240885819</v>
       </c>
-      <c r="J6" s="66">
+      <c r="J6" s="56">
         <f>I44</f>
         <v>1.1531519146220406</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K6" s="56">
         <f>I48</f>
         <v>1.0365330214547535</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>4.6303382181570159E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="41">
         <v>5</v>
       </c>
@@ -4636,11 +4636,11 @@
         <f t="shared" si="0"/>
         <v>0.11491777297745998</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="56">
         <f>D56</f>
         <v>2.7289675005867005</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="56">
         <f>D60</f>
         <v>2.9912182632933932</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>-3.9849740133252765E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="40">
         <v>6</v>
       </c>
@@ -4689,11 +4689,11 @@
         <f t="shared" si="0"/>
         <v>0.41349631862661629</v>
       </c>
-      <c r="J8" s="66">
+      <c r="J8" s="56">
         <f>I56</f>
         <v>3.3268346105583988</v>
       </c>
-      <c r="K8" s="66">
+      <c r="K8" s="56">
         <f>I60</f>
         <v>1.268303535308466</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>0.41880800797542306</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="40">
         <v>7</v>
       </c>
@@ -4742,11 +4742,11 @@
         <f t="shared" si="0"/>
         <v>0.195065749088699</v>
       </c>
-      <c r="J9" s="66">
+      <c r="J9" s="56">
         <f>D68</f>
         <v>0.99333875000030936</v>
       </c>
-      <c r="K9" s="66">
+      <c r="K9" s="56">
         <f>D72</f>
         <v>0.70380806265798834</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>0.1496431398647293</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="40">
         <v>8</v>
       </c>
@@ -4795,11 +4795,11 @@
         <f t="shared" si="0"/>
         <v>0.10097852553283926</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="56">
         <f>I68</f>
         <v>1.8479876177791996</v>
       </c>
-      <c r="K10" s="66">
+      <c r="K10" s="56">
         <f>I72</f>
         <v>1.1454769110792475</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>0.20771271724225274</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="40">
         <v>9</v>
       </c>
@@ -4848,11 +4848,11 @@
         <f t="shared" si="0"/>
         <v>0.16675936704652128</v>
       </c>
-      <c r="J11" s="66">
+      <c r="J11" s="56">
         <f>D80</f>
         <v>3.4661816243620116</v>
       </c>
-      <c r="K11" s="66">
+      <c r="K11" s="56">
         <f>D84</f>
         <v>1.5245768571387894</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>0.35670199260434909</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>0.17248608770512913</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" thickBot="1">
       <c r="A13" s="42" t="s">
         <v>1</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>5.0166387157077517E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15" thickTop="1">
       <c r="A14" s="43"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -4982,7 +4982,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="43"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -4993,22 +4993,22 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:13" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="s">
+    <row r="16" spans="1:13" ht="15" thickTop="1">
+      <c r="A16" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="64"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="35" t="s">
         <v>40</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="34" t="s">
         <v>2</v>
       </c>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="I18" s="28"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="34" t="s">
         <v>3</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>0.31039634202672295</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="34" t="s">
         <v>4</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>0.42196581942035732</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="34" t="s">
         <v>5</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>0.26035236377115073</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="34" t="s">
         <v>6</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>0.28918371263889092</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="34" t="s">
         <v>7</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>0.22748682509069182</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="34" t="s">
         <v>8</v>
       </c>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="I24" s="28"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="35" t="s">
         <v>10</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>5.0166387157077517E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" thickBot="1">
       <c r="A26" s="36" t="s">
         <v>9</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>7.7058611741106897E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15" thickTop="1">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -5301,7 +5301,7 @@
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
     </row>
-    <row r="28" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" thickBot="1">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -5312,22 +5312,22 @@
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
     </row>
-    <row r="29" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="59" t="s">
+    <row r="29" spans="1:9" ht="15" thickTop="1">
+      <c r="A29" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="59" t="s">
+      <c r="F29" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="61"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="31" t="s">
         <v>27</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="34" t="s">
         <v>2</v>
       </c>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="I31" s="28"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="34" t="s">
         <v>3</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>1.9611977275057382</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="34" t="s">
         <v>4</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>1.3542697521253366</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="34" t="s">
         <v>5</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>1.7009569561451088</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="34" t="s">
         <v>6</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>1.1048579133518814</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="34" t="s">
         <v>7</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>1.0955215226849566</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="34" t="s">
         <v>8</v>
       </c>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="I37" s="28"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="35" t="s">
         <v>10</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>0.25290046718802695</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" thickBot="1">
       <c r="A39" s="36" t="s">
         <v>9</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>0.44140179884960057</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.45" thickTop="1" thickBot="1">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -5592,22 +5592,22 @@
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
     </row>
-    <row r="41" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="59" t="s">
+    <row r="41" spans="1:9" ht="15" thickTop="1">
+      <c r="A41" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="61"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="59"/>
       <c r="E41" s="27"/>
-      <c r="F41" s="59" t="s">
+      <c r="F41" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="61"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="59"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="31" t="s">
         <v>29</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="34" t="s">
         <v>2</v>
       </c>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="34" t="s">
         <v>3</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>1.1531519146220406</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="34" t="s">
         <v>4</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>0.88557697806456837</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="34" t="s">
         <v>5</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>1.1591613849377773</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="34" t="s">
         <v>6</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>1.0628079758438953</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="34" t="s">
         <v>7</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>1.0365330214547535</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="34" t="s">
         <v>8</v>
       </c>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="35" t="s">
         <v>10</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>4.6303382181570159E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15" thickBot="1">
       <c r="A51" s="36" t="s">
         <v>9</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>0.10113055503663659</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15.45" thickTop="1" thickBot="1">
       <c r="A52" s="27"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -5872,22 +5872,22 @@
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
     </row>
-    <row r="53" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="59" t="s">
+    <row r="53" spans="1:9" ht="15" thickTop="1">
+      <c r="A53" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="61"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="59"/>
       <c r="E53" s="27"/>
-      <c r="F53" s="59" t="s">
+      <c r="F53" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="61"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="59"/>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="31" t="s">
         <v>31</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="34" t="s">
         <v>2</v>
       </c>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="I55" s="28"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="34" t="s">
         <v>3</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>3.3268346105583988</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="34" t="s">
         <v>4</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>1.4262738106791535</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="34" t="s">
         <v>5</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>1.7414788568832467</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="34" t="s">
         <v>6</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>2.284956514747007</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="34" t="s">
         <v>7</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>1.268303535308466</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="34" t="s">
         <v>8</v>
       </c>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="35" t="s">
         <v>10</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>0.41880800797542306</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15" thickBot="1">
       <c r="A63" s="36" t="s">
         <v>9</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>0.61876567855725617</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15.45" thickTop="1" thickBot="1">
       <c r="A64" s="27"/>
       <c r="B64" s="27"/>
       <c r="C64" s="27"/>
@@ -6152,22 +6152,22 @@
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
     </row>
-    <row r="65" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="59" t="s">
+    <row r="65" spans="1:9" ht="15" thickTop="1">
+      <c r="A65" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="60"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="61"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="59"/>
       <c r="E65" s="27"/>
-      <c r="F65" s="59" t="s">
+      <c r="F65" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="61"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="59"/>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="31" t="s">
         <v>33</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="34" t="s">
         <v>2</v>
       </c>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I67" s="28"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="34" t="s">
         <v>3</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>1.8479876177791996</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="34" t="s">
         <v>4</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>1.4146981807263983</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" s="34" t="s">
         <v>5</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>2.0488152473006194</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="34" t="s">
         <v>6</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>1.2012188813850024</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" s="34" t="s">
         <v>7</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>1.1454769110792475</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="34" t="s">
         <v>8</v>
       </c>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="I73" s="28"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" s="35" t="s">
         <v>10</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>0.20771271724225274</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15" thickBot="1">
       <c r="A75" s="36" t="s">
         <v>9</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>0.3801490334357257</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15.45" thickTop="1" thickBot="1">
       <c r="A76" s="27"/>
       <c r="B76" s="27"/>
       <c r="C76" s="27"/>
@@ -6432,20 +6432,20 @@
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
     </row>
-    <row r="77" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="59" t="s">
+    <row r="77" spans="1:9" ht="15" thickTop="1">
+      <c r="A77" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="60"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="61"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="59"/>
       <c r="E77" s="27"/>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" s="31" t="s">
         <v>39</v>
       </c>
@@ -6464,7 +6464,7 @@
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" s="34" t="s">
         <v>2</v>
       </c>
@@ -6481,7 +6481,7 @@
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" s="34" t="s">
         <v>3</v>
       </c>
@@ -6498,7 +6498,7 @@
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81" s="34" t="s">
         <v>4</v>
       </c>
@@ -6515,7 +6515,7 @@
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82" s="34" t="s">
         <v>5</v>
       </c>
@@ -6532,7 +6532,7 @@
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83" s="34" t="s">
         <v>6</v>
       </c>
@@ -6549,7 +6549,7 @@
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" s="34" t="s">
         <v>7</v>
       </c>
@@ -6566,7 +6566,7 @@
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" s="34" t="s">
         <v>8</v>
       </c>
@@ -6583,7 +6583,7 @@
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86" s="35" t="s">
         <v>10</v>
       </c>
@@ -6605,7 +6605,7 @@
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
     </row>
-    <row r="87" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15" thickBot="1">
       <c r="A87" s="36" t="s">
         <v>9</v>
       </c>
@@ -6627,7 +6627,7 @@
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
     </row>
-    <row r="88" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="15" thickTop="1">
       <c r="A88" s="37"/>
       <c r="B88" s="37"/>
       <c r="C88" s="37"/>
@@ -6666,22 +6666,22 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:9" ht="20.6" thickTop="1">
+      <c r="A1" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="38" t="s">
         <v>11</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="40">
         <v>1</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>0.46401628201074951</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="40">
         <v>2</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>7.3006506617174921E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="40">
         <v>3</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>0.21005068117324177</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="40">
         <v>4</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>0.24932615669133612</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="41">
         <v>5</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>0.10730983357012464</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="40">
         <v>6</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>0.14521176806831423</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="40">
         <v>7</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>-2.377128698803882E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="40">
         <v>8</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>8.5683969082443079E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="38" t="s">
         <v>0</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>0.16652850856432255</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" thickBot="1">
       <c r="A12" s="42" t="s">
         <v>1</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>5.0888740510026738E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" thickTop="1">
       <c r="A13" s="43"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -7091,7 +7091,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" thickBot="1">
       <c r="A14" s="43"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -7102,22 +7102,22 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+    <row r="15" spans="1:9" ht="15" thickTop="1">
+      <c r="A15" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
       <c r="H15" s="44"/>
       <c r="I15" s="44"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="35" t="s">
         <v>52</v>
       </c>
@@ -7140,7 +7140,7 @@
       <c r="H16" s="44"/>
       <c r="I16" s="44"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="34" t="s">
         <v>2</v>
       </c>
@@ -7161,7 +7161,7 @@
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="34" t="s">
         <v>3</v>
       </c>
@@ -7182,7 +7182,7 @@
       <c r="H18" s="44"/>
       <c r="I18" s="44"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="34" t="s">
         <v>4</v>
       </c>
@@ -7203,7 +7203,7 @@
       <c r="H19" s="44"/>
       <c r="I19" s="44"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="34" t="s">
         <v>5</v>
       </c>
@@ -7224,7 +7224,7 @@
       <c r="H20" s="44"/>
       <c r="I20" s="44"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="34" t="s">
         <v>6</v>
       </c>
@@ -7245,7 +7245,7 @@
       <c r="H21" s="27"/>
       <c r="I21" s="44"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="34" t="s">
         <v>7</v>
       </c>
@@ -7266,7 +7266,7 @@
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="34" t="s">
         <v>8</v>
       </c>
@@ -7287,7 +7287,7 @@
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="35" t="s">
         <v>10</v>
       </c>
@@ -7314,7 +7314,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
     </row>
-    <row r="25" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" thickBot="1">
       <c r="A25" s="36" t="s">
         <v>9</v>
       </c>
@@ -7341,7 +7341,7 @@
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
     </row>
-    <row r="26" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15" thickTop="1">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -7352,7 +7352,7 @@
       <c r="H26" s="44"/>
       <c r="I26" s="44"/>
     </row>
-    <row r="27" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -7363,22 +7363,22 @@
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
     </row>
-    <row r="28" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59" t="s">
+    <row r="28" spans="1:9" ht="15" thickTop="1">
+      <c r="A28" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="27"/>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="60"/>
-      <c r="G28" s="61"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="59"/>
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="31" t="s">
         <v>27</v>
       </c>
@@ -7401,7 +7401,7 @@
       <c r="H29" s="44"/>
       <c r="I29" s="44"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="34" t="s">
         <v>2</v>
       </c>
@@ -7420,7 +7420,7 @@
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="34" t="s">
         <v>3</v>
       </c>
@@ -7439,7 +7439,7 @@
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="34" t="s">
         <v>4</v>
       </c>
@@ -7458,7 +7458,7 @@
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="34" t="s">
         <v>5</v>
       </c>
@@ -7477,7 +7477,7 @@
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="34" t="s">
         <v>6</v>
       </c>
@@ -7496,7 +7496,7 @@
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="34" t="s">
         <v>7</v>
       </c>
@@ -7515,7 +7515,7 @@
       <c r="H35" s="44"/>
       <c r="I35" s="44"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="34" t="s">
         <v>8</v>
       </c>
@@ -7534,7 +7534,7 @@
       <c r="H36" s="44"/>
       <c r="I36" s="44"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="35" t="s">
         <v>10</v>
       </c>
@@ -7561,7 +7561,7 @@
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
     </row>
-    <row r="38" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" thickBot="1">
       <c r="A38" s="36" t="s">
         <v>9</v>
       </c>
@@ -7588,7 +7588,7 @@
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
     </row>
-    <row r="39" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.45" thickTop="1" thickBot="1">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -7599,22 +7599,22 @@
       <c r="H39" s="44"/>
       <c r="I39" s="44"/>
     </row>
-    <row r="40" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59" t="s">
+    <row r="40" spans="1:9" ht="15" thickTop="1">
+      <c r="A40" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="61"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="27"/>
-      <c r="E40" s="59" t="s">
+      <c r="E40" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="60"/>
-      <c r="G40" s="61"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="59"/>
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="31" t="s">
         <v>29</v>
       </c>
@@ -7637,7 +7637,7 @@
       <c r="H41" s="44"/>
       <c r="I41" s="44"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="34" t="s">
         <v>2</v>
       </c>
@@ -7656,7 +7656,7 @@
       <c r="H42" s="44"/>
       <c r="I42" s="44"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="34" t="s">
         <v>3</v>
       </c>
@@ -7675,7 +7675,7 @@
       <c r="H43" s="44"/>
       <c r="I43" s="44"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="34" t="s">
         <v>4</v>
       </c>
@@ -7694,7 +7694,7 @@
       <c r="H44" s="44"/>
       <c r="I44" s="44"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="34" t="s">
         <v>5</v>
       </c>
@@ -7713,7 +7713,7 @@
       <c r="H45" s="44"/>
       <c r="I45" s="44"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="34" t="s">
         <v>6</v>
       </c>
@@ -7732,7 +7732,7 @@
       <c r="H46" s="44"/>
       <c r="I46" s="44"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="34" t="s">
         <v>7</v>
       </c>
@@ -7751,7 +7751,7 @@
       <c r="H47" s="44"/>
       <c r="I47" s="44"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="34" t="s">
         <v>8</v>
       </c>
@@ -7770,7 +7770,7 @@
       <c r="H48" s="44"/>
       <c r="I48" s="44"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="35" t="s">
         <v>10</v>
       </c>
@@ -7797,7 +7797,7 @@
       <c r="H49" s="44"/>
       <c r="I49" s="44"/>
     </row>
-    <row r="50" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15" thickBot="1">
       <c r="A50" s="36" t="s">
         <v>9</v>
       </c>
@@ -7824,7 +7824,7 @@
       <c r="H50" s="44"/>
       <c r="I50" s="44"/>
     </row>
-    <row r="51" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15.45" thickTop="1" thickBot="1">
       <c r="A51" s="27"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -7835,22 +7835,22 @@
       <c r="H51" s="44"/>
       <c r="I51" s="44"/>
     </row>
-    <row r="52" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="59" t="s">
+    <row r="52" spans="1:9" ht="15" thickTop="1">
+      <c r="A52" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="60"/>
-      <c r="C52" s="61"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="59"/>
       <c r="D52" s="27"/>
-      <c r="E52" s="59" t="s">
+      <c r="E52" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F52" s="60"/>
-      <c r="G52" s="61"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="59"/>
       <c r="H52" s="44"/>
       <c r="I52" s="44"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="31" t="s">
         <v>31</v>
       </c>
@@ -7873,7 +7873,7 @@
       <c r="H53" s="44"/>
       <c r="I53" s="44"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="34" t="s">
         <v>2</v>
       </c>
@@ -7892,7 +7892,7 @@
       <c r="H54" s="44"/>
       <c r="I54" s="44"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="34" t="s">
         <v>3</v>
       </c>
@@ -7911,7 +7911,7 @@
       <c r="H55" s="44"/>
       <c r="I55" s="44"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="34" t="s">
         <v>4</v>
       </c>
@@ -7930,7 +7930,7 @@
       <c r="H56" s="44"/>
       <c r="I56" s="44"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="34" t="s">
         <v>5</v>
       </c>
@@ -7949,7 +7949,7 @@
       <c r="H57" s="44"/>
       <c r="I57" s="44"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="34" t="s">
         <v>6</v>
       </c>
@@ -7968,7 +7968,7 @@
       <c r="H58" s="44"/>
       <c r="I58" s="44"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="34" t="s">
         <v>7</v>
       </c>
@@ -7987,7 +7987,7 @@
       <c r="H59" s="44"/>
       <c r="I59" s="44"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="34" t="s">
         <v>8</v>
       </c>
@@ -8006,7 +8006,7 @@
       <c r="H60" s="44"/>
       <c r="I60" s="44"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="35" t="s">
         <v>10</v>
       </c>
@@ -8033,7 +8033,7 @@
       <c r="H61" s="44"/>
       <c r="I61" s="44"/>
     </row>
-    <row r="62" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15" thickBot="1">
       <c r="A62" s="36" t="s">
         <v>9</v>
       </c>
@@ -8060,7 +8060,7 @@
       <c r="H62" s="44"/>
       <c r="I62" s="44"/>
     </row>
-    <row r="63" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15.45" thickTop="1" thickBot="1">
       <c r="A63" s="27"/>
       <c r="B63" s="27"/>
       <c r="C63" s="27"/>
@@ -8071,22 +8071,22 @@
       <c r="H63" s="44"/>
       <c r="I63" s="44"/>
     </row>
-    <row r="64" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="59" t="s">
+    <row r="64" spans="1:9" ht="15" thickTop="1">
+      <c r="A64" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="60"/>
-      <c r="C64" s="61"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="59"/>
       <c r="D64" s="27"/>
-      <c r="E64" s="59" t="s">
+      <c r="E64" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="60"/>
-      <c r="G64" s="61"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="59"/>
       <c r="H64" s="44"/>
       <c r="I64" s="44"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="31" t="s">
         <v>33</v>
       </c>
@@ -8109,7 +8109,7 @@
       <c r="H65" s="44"/>
       <c r="I65" s="44"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="34" t="s">
         <v>2</v>
       </c>
@@ -8128,7 +8128,7 @@
       <c r="H66" s="44"/>
       <c r="I66" s="44"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="34" t="s">
         <v>3</v>
       </c>
@@ -8147,7 +8147,7 @@
       <c r="H67" s="44"/>
       <c r="I67" s="44"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="34" t="s">
         <v>4</v>
       </c>
@@ -8166,7 +8166,7 @@
       <c r="H68" s="44"/>
       <c r="I68" s="44"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="34" t="s">
         <v>5</v>
       </c>
@@ -8185,7 +8185,7 @@
       <c r="H69" s="44"/>
       <c r="I69" s="44"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" s="34" t="s">
         <v>6</v>
       </c>
@@ -8204,7 +8204,7 @@
       <c r="H70" s="44"/>
       <c r="I70" s="44"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="34" t="s">
         <v>7</v>
       </c>
@@ -8223,7 +8223,7 @@
       <c r="H71" s="44"/>
       <c r="I71" s="44"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" s="34" t="s">
         <v>8</v>
       </c>
@@ -8242,7 +8242,7 @@
       <c r="H72" s="44"/>
       <c r="I72" s="44"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="35" t="s">
         <v>10</v>
       </c>
@@ -8269,7 +8269,7 @@
       <c r="H73" s="44"/>
       <c r="I73" s="44"/>
     </row>
-    <row r="74" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15" thickBot="1">
       <c r="A74" s="36" t="s">
         <v>9</v>
       </c>
@@ -8296,7 +8296,7 @@
       <c r="H74" s="44"/>
       <c r="I74" s="44"/>
     </row>
-    <row r="75" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="15" thickTop="1">
       <c r="A75" s="27"/>
       <c r="B75" s="27"/>
       <c r="C75" s="27"/>
@@ -8307,7 +8307,7 @@
       <c r="H75" s="44"/>
       <c r="I75" s="44"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -8316,7 +8316,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -8325,7 +8325,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -8334,7 +8334,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -8343,7 +8343,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -8352,7 +8352,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -8361,7 +8361,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -8370,7 +8370,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -8402,30 +8402,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="22" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:13" ht="21" thickTop="1">
+      <c r="A1" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="69"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="62"/>
       <c r="M1" s="52"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="38" t="s">
         <v>11</v>
       </c>
@@ -8464,7 +8464,7 @@
       </c>
       <c r="M2" s="53"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="40">
         <v>1</v>
       </c>
@@ -8509,11 +8509,11 @@
         <v>0.36787195497565373</v>
       </c>
       <c r="L3" s="9">
-        <f>-(J3-K3)/J3</f>
-        <v>0.21272725911313264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <f>-(J3-K3)</f>
+        <v>6.4529260061152949E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="40">
         <v>2</v>
       </c>
@@ -8558,11 +8558,11 @@
         <v>0.88226001031509782</v>
       </c>
       <c r="L4" s="9">
-        <f t="shared" ref="L4:L10" si="4">-(J4-K4)/J4</f>
-        <v>0.27466851513577223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" ref="L4:L10" si="4">-(J4-K4)</f>
+        <v>0.19011142435812589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="40">
         <v>3</v>
       </c>
@@ -8608,10 +8608,10 @@
       </c>
       <c r="L5" s="9">
         <f t="shared" si="4"/>
-        <v>-1.311454305031361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-0.4827014687285458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="40">
         <v>4</v>
       </c>
@@ -8657,10 +8657,10 @@
       </c>
       <c r="L6" s="9">
         <f t="shared" si="4"/>
-        <v>1.2348691597733938</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.87104084408055515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="41">
         <v>5</v>
       </c>
@@ -8706,10 +8706,10 @@
       </c>
       <c r="L7" s="9">
         <f t="shared" si="4"/>
-        <v>-0.14617492512085031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-0.19659901099038724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="40">
         <v>6</v>
       </c>
@@ -8755,10 +8755,10 @@
       </c>
       <c r="L8" s="9">
         <f t="shared" si="4"/>
-        <v>0.77765410735262697</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.1285097671455442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="40">
         <v>7</v>
       </c>
@@ -8804,10 +8804,10 @@
       </c>
       <c r="L9" s="9">
         <f t="shared" si="4"/>
-        <v>0.91456350411685949</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.82817840804282783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="40">
         <v>8</v>
       </c>
@@ -8853,10 +8853,10 @@
       </c>
       <c r="L10" s="9">
         <f t="shared" si="4"/>
-        <v>0.66282795249669779</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.51716851607959569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="38" t="s">
         <v>0</v>
       </c>
@@ -8902,10 +8902,10 @@
       </c>
       <c r="L11" s="13">
         <f t="shared" si="6"/>
-        <v>0.32746015847953402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.36502971750610858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1">
       <c r="A12" s="42" t="s">
         <v>1</v>
       </c>
@@ -8951,10 +8951,10 @@
       </c>
       <c r="L12" s="47">
         <f t="shared" si="7"/>
-        <v>0.28060995393580479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+        <v>0.19962348026891211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickTop="1">
       <c r="A13" s="43"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -8965,7 +8965,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" thickBot="1">
       <c r="A14" s="43"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -8976,22 +8976,22 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:13" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+    <row r="15" spans="1:13" ht="15" thickTop="1">
+      <c r="A15" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="64"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="35" t="s">
         <v>52</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="34" t="s">
         <v>2</v>
       </c>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I17" s="28"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="34" t="s">
         <v>3</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>0.14537580248922377</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="34" t="s">
         <v>4</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>0.20365599026514944</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="34" t="s">
         <v>5</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>0.18799093239736339</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="34" t="s">
         <v>6</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>0.24229983248689951</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="34" t="s">
         <v>7</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>0.29464899475768014</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="34" t="s">
         <v>8</v>
       </c>
@@ -9207,7 +9207,7 @@
       </c>
       <c r="I23" s="28"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="35" t="s">
         <v>10</v>
       </c>
@@ -9234,7 +9234,7 @@
       </c>
       <c r="I24" s="28"/>
     </row>
-    <row r="25" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" thickBot="1">
       <c r="A25" s="36" t="s">
         <v>9</v>
       </c>
@@ -9248,7 +9248,7 @@
       </c>
       <c r="D25" s="30">
         <f>AVERAGE(D38,I38,D50,I50,D62,I62,D74,I74)</f>
-        <v>0.32746015847953402</v>
+        <v>0.36502971750610858</v>
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="36" t="s">
@@ -9264,10 +9264,10 @@
       </c>
       <c r="I25" s="30">
         <f>STDEV(D38,I38,D50,I50,D62,I62,D74,I74)/SQRT(8)</f>
-        <v>0.28060995393580479</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+        <v>0.19962348026891211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" thickTop="1">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -9278,7 +9278,7 @@
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
     </row>
-    <row r="27" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -9289,22 +9289,22 @@
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
     </row>
-    <row r="28" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59" t="s">
+    <row r="28" spans="1:9" ht="15" thickTop="1">
+      <c r="A28" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="27"/>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="61"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="31" t="s">
         <v>27</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="34" t="s">
         <v>2</v>
       </c>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="I30" s="28"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="34" t="s">
         <v>3</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>0.69214858595697193</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="34" t="s">
         <v>4</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>0.74330487963851255</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="34" t="s">
         <v>5</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>0.88026102156252306</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="34" t="s">
         <v>6</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>0.77725739444552611</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="34" t="s">
         <v>7</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>0.88226001031509782</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="34" t="s">
         <v>8</v>
       </c>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="I36" s="28"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="35" t="s">
         <v>10</v>
       </c>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="I37" s="28"/>
     </row>
-    <row r="38" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" thickBot="1">
       <c r="A38" s="36" t="s">
         <v>9</v>
       </c>
@@ -9532,8 +9532,8 @@
         <v>0.49694702443225031</v>
       </c>
       <c r="D38" s="30">
-        <f>(D35-D31)/D31</f>
-        <v>0.21272725911313264</v>
+        <f>(D35-D31)</f>
+        <v>6.4529260061152949E-2</v>
       </c>
       <c r="E38" s="27"/>
       <c r="F38" s="36" t="s">
@@ -9548,11 +9548,11 @@
         <v>0.3356923532326509</v>
       </c>
       <c r="I38" s="30">
-        <f>(I35-I31)/I31</f>
-        <v>0.27466851513577223</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>(I35-I31)</f>
+        <v>0.19011142435812589</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.45" thickTop="1" thickBot="1">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -9563,22 +9563,22 @@
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
     </row>
-    <row r="40" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59" t="s">
+    <row r="40" spans="1:9" ht="15" thickTop="1">
+      <c r="A40" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="61"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="59"/>
       <c r="E40" s="27"/>
-      <c r="F40" s="59" t="s">
+      <c r="F40" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="61"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="59"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="31" t="s">
         <v>29</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="34" t="s">
         <v>2</v>
       </c>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="I42" s="51"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="34" t="s">
         <v>3</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>0.70537095949533357</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="34" t="s">
         <v>4</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>1.4251260940294559</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="34" t="s">
         <v>5</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>1.2142294283823565</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="34" t="s">
         <v>6</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>1.385753820241642</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="34" t="s">
         <v>7</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>1.5764118035758887</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="34" t="s">
         <v>8</v>
       </c>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="35" t="s">
         <v>10</v>
       </c>
@@ -9793,7 +9793,7 @@
       </c>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15" thickBot="1">
       <c r="A50" s="36" t="s">
         <v>9</v>
       </c>
@@ -9806,8 +9806,8 @@
         <v>0.4663324662747298</v>
       </c>
       <c r="D50" s="30">
-        <f>(D47-D43)/D43</f>
-        <v>-1.311454305031361</v>
+        <f>(D47-D43)</f>
+        <v>-0.4827014687285458</v>
       </c>
       <c r="E50" s="27"/>
       <c r="F50" s="36" t="s">
@@ -9822,11 +9822,11 @@
         <v>0.55079147424879538</v>
       </c>
       <c r="I50" s="30">
-        <f>(I47-I43)/I43</f>
-        <v>1.2348691597733938</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>(I47-I43)</f>
+        <v>0.87104084408055515</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.45" thickTop="1" thickBot="1">
       <c r="A51" s="27"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -9837,22 +9837,22 @@
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
     </row>
-    <row r="52" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="59" t="s">
+    <row r="52" spans="1:9" ht="15" thickTop="1">
+      <c r="A52" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="61"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="59"/>
       <c r="E52" s="27"/>
-      <c r="F52" s="59" t="s">
+      <c r="F52" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="61"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="59"/>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="31" t="s">
         <v>31</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="34" t="s">
         <v>2</v>
       </c>
@@ -9902,7 +9902,7 @@
       </c>
       <c r="I54" s="28"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="34" t="s">
         <v>3</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>1.4511718725274112</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="34" t="s">
         <v>4</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>2.4308586674506061</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="34" t="s">
         <v>5</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>1.9397336405825345</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="34" t="s">
         <v>6</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>2.4007552637737146</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="34" t="s">
         <v>7</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>2.5796816396729554</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="34" t="s">
         <v>8</v>
       </c>
@@ -10040,7 +10040,7 @@
       </c>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="35" t="s">
         <v>10</v>
       </c>
@@ -10067,7 +10067,7 @@
       </c>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15" thickBot="1">
       <c r="A62" s="36" t="s">
         <v>9</v>
       </c>
@@ -10080,8 +10080,8 @@
         <v>0.60602050802894913</v>
       </c>
       <c r="D62" s="30">
-        <f>(D59-D55)/D55</f>
-        <v>-0.14617492512085031</v>
+        <f>(D59-D55)</f>
+        <v>-0.19659901099038724</v>
       </c>
       <c r="E62" s="27"/>
       <c r="F62" s="36" t="s">
@@ -10096,11 +10096,11 @@
         <v>0.38982473201089285</v>
       </c>
       <c r="I62" s="30">
-        <f>(I59-I55)/I55</f>
-        <v>0.77765410735262697</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>(I59-I55)</f>
+        <v>1.1285097671455442</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.45" thickTop="1" thickBot="1">
       <c r="A63" s="27"/>
       <c r="B63" s="27"/>
       <c r="C63" s="27"/>
@@ -10111,22 +10111,22 @@
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
     </row>
-    <row r="64" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="59" t="s">
+    <row r="64" spans="1:9" ht="15" thickTop="1">
+      <c r="A64" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="60"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="61"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="59"/>
       <c r="E64" s="27"/>
-      <c r="F64" s="59" t="s">
+      <c r="F64" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="61"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="59"/>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="31" t="s">
         <v>33</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="34" t="s">
         <v>2</v>
       </c>
@@ -10176,7 +10176,7 @@
       </c>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="34" t="s">
         <v>3</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>0.78024548320806109</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="34" t="s">
         <v>4</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>1.4010941363292546</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="34" t="s">
         <v>5</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>1.1331153261238118</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" s="34" t="s">
         <v>6</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>1.3650230514893482</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="34" t="s">
         <v>7</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>1.2974139992876568</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" s="34" t="s">
         <v>8</v>
       </c>
@@ -10314,7 +10314,7 @@
       </c>
       <c r="I72" s="28"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="35" t="s">
         <v>10</v>
       </c>
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I73" s="28"/>
     </row>
-    <row r="74" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15" thickBot="1">
       <c r="A74" s="36" t="s">
         <v>9</v>
       </c>
@@ -10354,8 +10354,8 @@
         <v>0.25237547039453984</v>
       </c>
       <c r="D74" s="30">
-        <f>(D71-D67)/D67</f>
-        <v>0.91456350411685949</v>
+        <f>(D71-D67)</f>
+        <v>0.82817840804282783</v>
       </c>
       <c r="E74" s="27"/>
       <c r="F74" s="36" t="s">
@@ -10370,11 +10370,11 @@
         <v>0.44069031422123112</v>
       </c>
       <c r="I74" s="30">
-        <f>(I71-I67)/I67</f>
-        <v>0.66282795249669779</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+        <f>(I71-I67)</f>
+        <v>0.51716851607959569</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15" thickTop="1">
       <c r="A75" s="27"/>
       <c r="B75" s="27"/>
       <c r="C75" s="27"/>
@@ -10385,77 +10385,77 @@
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" s="27"/>
       <c r="B76" s="27"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" s="27"/>
       <c r="B77" s="27"/>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" s="27"/>
       <c r="B78" s="27"/>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
       <c r="E78" s="27"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" s="27"/>
       <c r="B79" s="27"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
       <c r="E79" s="27"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" s="27"/>
       <c r="B80" s="27"/>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
       <c r="E80" s="27"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" s="27"/>
       <c r="B81" s="27"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
       <c r="E81" s="27"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" s="27"/>
       <c r="B82" s="27"/>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
       <c r="E82" s="27"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" s="27"/>
       <c r="B83" s="27"/>
       <c r="C83" s="27"/>
       <c r="D83" s="27"/>
       <c r="E83" s="27"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" s="27"/>
       <c r="B84" s="27"/>
       <c r="C84" s="27"/>
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
       <c r="C85" s="27"/>
       <c r="D85" s="27"/>
       <c r="E85" s="27"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
@@ -10485,25 +10485,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:8" ht="20.6" thickTop="1">
+      <c r="A1" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="69"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="38" t="s">
         <v>11</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="40">
         <v>1</v>
       </c>
@@ -10558,11 +10558,11 @@
         <v>-5.581279295283359E-2</v>
       </c>
       <c r="H3" s="9">
-        <f>-(F3-G3)/F3</f>
-        <v>-0.81337070304157988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <f>G3-F3</f>
+        <v>0.24324418182250596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="40">
         <v>2</v>
       </c>
@@ -10591,11 +10591,11 @@
         <v>3.4620679242007011</v>
       </c>
       <c r="H4" s="9">
-        <f t="shared" ref="H4:H10" si="2">-(F4-G4)/F4</f>
-        <v>0.15533345632765733</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H4:H10" si="2">G4-F4</f>
+        <v>0.46547165561757753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="40">
         <v>3</v>
       </c>
@@ -10625,10 +10625,10 @@
       </c>
       <c r="H5" s="9">
         <f t="shared" si="2"/>
-        <v>0.80508973657177973</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.3135217428134709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="40">
         <v>4</v>
       </c>
@@ -10658,10 +10658,10 @@
       </c>
       <c r="H6" s="9">
         <f t="shared" si="2"/>
-        <v>1.1913244449177136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.2519528308662387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="41">
         <v>5</v>
       </c>
@@ -10691,10 +10691,10 @@
       </c>
       <c r="H7" s="9">
         <f t="shared" si="2"/>
-        <v>2.2114020083194497</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.2471418524659481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="40">
         <v>6</v>
       </c>
@@ -10724,10 +10724,10 @@
       </c>
       <c r="H8" s="9">
         <f t="shared" si="2"/>
-        <v>0.54075747605845714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.64394446349146506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="40">
         <v>7</v>
       </c>
@@ -10757,10 +10757,10 @@
       </c>
       <c r="H9" s="9">
         <f t="shared" si="2"/>
-        <v>0.78165992755225233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.0685346056389626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="40">
         <v>8</v>
       </c>
@@ -10790,10 +10790,10 @@
       </c>
       <c r="H10" s="9">
         <f t="shared" si="2"/>
-        <v>0.35004891591021281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.48198010702519367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="38" t="s">
         <v>0</v>
       </c>
@@ -10823,10 +10823,10 @@
       </c>
       <c r="H11" s="13">
         <f t="shared" si="3"/>
-        <v>0.65278065782699279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.83947392996767034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1">
       <c r="A12" s="42" t="s">
         <v>1</v>
       </c>
@@ -10856,10 +10856,10 @@
       </c>
       <c r="H12" s="47">
         <f t="shared" si="4"/>
-        <v>0.30648896153892696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+        <v>0.15088567811770451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickTop="1">
       <c r="A13" s="43"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -10869,7 +10869,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" thickBot="1">
       <c r="A14" s="43"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -10879,21 +10879,21 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+    <row r="15" spans="1:8" ht="15" thickTop="1">
+      <c r="A15" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
       <c r="H15" s="44"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="35" t="s">
         <v>52</v>
       </c>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="H16" s="44"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="34" t="s">
         <v>2</v>
       </c>
@@ -10935,7 +10935,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="44"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="34" t="s">
         <v>3</v>
       </c>
@@ -10955,7 +10955,7 @@
       </c>
       <c r="H18" s="44"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="34" t="s">
         <v>4</v>
       </c>
@@ -10975,7 +10975,7 @@
       </c>
       <c r="H19" s="44"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="34" t="s">
         <v>5</v>
       </c>
@@ -10995,7 +10995,7 @@
       </c>
       <c r="H20" s="44"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="34" t="s">
         <v>6</v>
       </c>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="34" t="s">
         <v>7</v>
       </c>
@@ -11035,7 +11035,7 @@
       </c>
       <c r="H22" s="44"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="34" t="s">
         <v>8</v>
       </c>
@@ -11055,7 +11055,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="44"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="35" t="s">
         <v>10</v>
       </c>
@@ -11075,7 +11075,7 @@
       <c r="G24" s="28"/>
       <c r="H24" s="44"/>
     </row>
-    <row r="25" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" thickBot="1">
       <c r="A25" s="36" t="s">
         <v>9</v>
       </c>
@@ -11085,7 +11085,7 @@
       </c>
       <c r="C25" s="30">
         <f t="shared" si="5"/>
-        <v>0.65278065782699279</v>
+        <v>0.83947392996767034</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="36" t="s">
@@ -11097,11 +11097,11 @@
       </c>
       <c r="G25" s="30">
         <f t="shared" si="6"/>
-        <v>0.30648896153892696</v>
+        <v>0.15088567811770451</v>
       </c>
       <c r="H25" s="44"/>
     </row>
-    <row r="26" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15" thickTop="1">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -11111,7 +11111,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="44"/>
     </row>
-    <row r="27" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" thickBot="1">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -11121,21 +11121,21 @@
       <c r="G27" s="27"/>
       <c r="H27" s="44"/>
     </row>
-    <row r="28" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59" t="s">
+    <row r="28" spans="1:8" ht="15" thickTop="1">
+      <c r="A28" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="27"/>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="60"/>
-      <c r="G28" s="61"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="59"/>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="31" t="s">
         <v>27</v>
       </c>
@@ -11157,7 +11157,7 @@
       </c>
       <c r="H29" s="44"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="34" t="s">
         <v>2</v>
       </c>
@@ -11175,7 +11175,7 @@
       <c r="G30" s="28"/>
       <c r="H30" s="44"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="34" t="s">
         <v>3</v>
       </c>
@@ -11193,7 +11193,7 @@
       </c>
       <c r="H31" s="44"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="34" t="s">
         <v>4</v>
       </c>
@@ -11211,7 +11211,7 @@
       </c>
       <c r="H32" s="44"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="34" t="s">
         <v>5</v>
       </c>
@@ -11229,7 +11229,7 @@
       </c>
       <c r="H33" s="44"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="34" t="s">
         <v>6</v>
       </c>
@@ -11247,7 +11247,7 @@
       </c>
       <c r="H34" s="44"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="34" t="s">
         <v>7</v>
       </c>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="H35" s="44"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="34" t="s">
         <v>8</v>
       </c>
@@ -11283,7 +11283,7 @@
       <c r="G36" s="28"/>
       <c r="H36" s="44"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="35" t="s">
         <v>10</v>
       </c>
@@ -11303,7 +11303,7 @@
       <c r="G37" s="28"/>
       <c r="H37" s="44"/>
     </row>
-    <row r="38" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15" thickBot="1">
       <c r="A38" s="36" t="s">
         <v>9</v>
       </c>
@@ -11312,8 +11312,8 @@
         <v>0.17087277002891066</v>
       </c>
       <c r="C38" s="30">
-        <f>(C35-C31)/C31</f>
-        <v>-0.81337070304157988</v>
+        <f>(C35-C31)</f>
+        <v>0.24324418182250596</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="36" t="s">
@@ -11324,12 +11324,12 @@
         <v>-0.17473680948727827</v>
       </c>
       <c r="G38" s="30">
-        <f>(G35-G31)/G31</f>
-        <v>0.15533345632765733</v>
+        <f>(G35-G31)</f>
+        <v>0.46547165561757753</v>
       </c>
       <c r="H38" s="44"/>
     </row>
-    <row r="39" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.45" thickTop="1" thickBot="1">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -11339,21 +11339,21 @@
       <c r="G39" s="27"/>
       <c r="H39" s="44"/>
     </row>
-    <row r="40" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59" t="s">
+    <row r="40" spans="1:8" ht="15" thickTop="1">
+      <c r="A40" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="61"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="27"/>
-      <c r="E40" s="59" t="s">
+      <c r="E40" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="60"/>
-      <c r="G40" s="61"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="59"/>
       <c r="H40" s="44"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="31" t="s">
         <v>29</v>
       </c>
@@ -11375,7 +11375,7 @@
       </c>
       <c r="H41" s="44"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="34" t="s">
         <v>2</v>
       </c>
@@ -11393,7 +11393,7 @@
       <c r="G42" s="28"/>
       <c r="H42" s="44"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="34" t="s">
         <v>3</v>
       </c>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="H43" s="44"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="34" t="s">
         <v>4</v>
       </c>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="H44" s="44"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="34" t="s">
         <v>5</v>
       </c>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="H45" s="44"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="34" t="s">
         <v>6</v>
       </c>
@@ -11465,7 +11465,7 @@
       </c>
       <c r="H46" s="44"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="34" t="s">
         <v>7</v>
       </c>
@@ -11483,7 +11483,7 @@
       </c>
       <c r="H47" s="44"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="34" t="s">
         <v>8</v>
       </c>
@@ -11501,7 +11501,7 @@
       <c r="G48" s="28"/>
       <c r="H48" s="44"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="35" t="s">
         <v>10</v>
       </c>
@@ -11521,7 +11521,7 @@
       <c r="G49" s="28"/>
       <c r="H49" s="44"/>
     </row>
-    <row r="50" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15" thickBot="1">
       <c r="A50" s="36" t="s">
         <v>9</v>
       </c>
@@ -11530,8 +11530,8 @@
         <v>0.16893682160841733</v>
       </c>
       <c r="C50" s="30">
-        <f>(C47-C43)/C43</f>
-        <v>0.80508973657177973</v>
+        <f>(C47-C43)</f>
+        <v>1.3135217428134709</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="36" t="s">
@@ -11542,12 +11542,12 @@
         <v>-0.13618952686476513</v>
       </c>
       <c r="G50" s="30">
-        <f>(G47-G43)/G43</f>
-        <v>1.1913244449177136</v>
+        <f>(G47-G43)</f>
+        <v>1.2519528308662387</v>
       </c>
       <c r="H50" s="44"/>
     </row>
-    <row r="51" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.45" thickTop="1" thickBot="1">
       <c r="A51" s="27"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -11557,21 +11557,21 @@
       <c r="G51" s="27"/>
       <c r="H51" s="44"/>
     </row>
-    <row r="52" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="59" t="s">
+    <row r="52" spans="1:8" ht="15" thickTop="1">
+      <c r="A52" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="60"/>
-      <c r="C52" s="61"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="59"/>
       <c r="D52" s="27"/>
-      <c r="E52" s="59" t="s">
+      <c r="E52" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F52" s="60"/>
-      <c r="G52" s="61"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="59"/>
       <c r="H52" s="44"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="31" t="s">
         <v>31</v>
       </c>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="H53" s="44"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="34" t="s">
         <v>2</v>
       </c>
@@ -11611,7 +11611,7 @@
       <c r="G54" s="28"/>
       <c r="H54" s="44"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="34" t="s">
         <v>3</v>
       </c>
@@ -11629,7 +11629,7 @@
       </c>
       <c r="H55" s="44"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="34" t="s">
         <v>4</v>
       </c>
@@ -11647,7 +11647,7 @@
       </c>
       <c r="H56" s="44"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="34" t="s">
         <v>5</v>
       </c>
@@ -11665,7 +11665,7 @@
       </c>
       <c r="H57" s="44"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="34" t="s">
         <v>6</v>
       </c>
@@ -11683,7 +11683,7 @@
       </c>
       <c r="H58" s="44"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="34" t="s">
         <v>7</v>
       </c>
@@ -11701,7 +11701,7 @@
       </c>
       <c r="H59" s="44"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="34" t="s">
         <v>8</v>
       </c>
@@ -11719,7 +11719,7 @@
       <c r="G60" s="28"/>
       <c r="H60" s="44"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="35" t="s">
         <v>10</v>
       </c>
@@ -11739,7 +11739,7 @@
       <c r="G61" s="28"/>
       <c r="H61" s="44"/>
     </row>
-    <row r="62" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15" thickBot="1">
       <c r="A62" s="36" t="s">
         <v>9</v>
       </c>
@@ -11748,8 +11748,8 @@
         <v>0.37728634924298105</v>
       </c>
       <c r="C62" s="30">
-        <f>(C59-C55)/C55</f>
-        <v>2.2114020083194497</v>
+        <f>(C59-C55)</f>
+        <v>1.2471418524659481</v>
       </c>
       <c r="D62" s="27"/>
       <c r="E62" s="36" t="s">
@@ -11760,12 +11760,12 @@
         <v>2.7460036771911233E-2</v>
       </c>
       <c r="G62" s="30">
-        <f>(G59-G55)/G55</f>
-        <v>0.54075747605845714</v>
+        <f>(G59-G55)</f>
+        <v>0.64394446349146506</v>
       </c>
       <c r="H62" s="44"/>
     </row>
-    <row r="63" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.45" thickTop="1" thickBot="1">
       <c r="A63" s="27"/>
       <c r="B63" s="27"/>
       <c r="C63" s="27"/>
@@ -11775,21 +11775,21 @@
       <c r="G63" s="27"/>
       <c r="H63" s="44"/>
     </row>
-    <row r="64" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="59" t="s">
+    <row r="64" spans="1:8" ht="15" thickTop="1">
+      <c r="A64" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="60"/>
-      <c r="C64" s="61"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="59"/>
       <c r="D64" s="27"/>
-      <c r="E64" s="59" t="s">
+      <c r="E64" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="60"/>
-      <c r="G64" s="61"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="59"/>
       <c r="H64" s="44"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" s="31" t="s">
         <v>33</v>
       </c>
@@ -11811,7 +11811,7 @@
       </c>
       <c r="H65" s="44"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" s="34" t="s">
         <v>2</v>
       </c>
@@ -11829,7 +11829,7 @@
       <c r="G66" s="28"/>
       <c r="H66" s="44"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="34" t="s">
         <v>3</v>
       </c>
@@ -11847,7 +11847,7 @@
       </c>
       <c r="H67" s="44"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" s="34" t="s">
         <v>4</v>
       </c>
@@ -11865,7 +11865,7 @@
       </c>
       <c r="H68" s="44"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="34" t="s">
         <v>5</v>
       </c>
@@ -11883,7 +11883,7 @@
       </c>
       <c r="H69" s="44"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="34" t="s">
         <v>6</v>
       </c>
@@ -11901,7 +11901,7 @@
       </c>
       <c r="H70" s="44"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="34" t="s">
         <v>7</v>
       </c>
@@ -11919,7 +11919,7 @@
       </c>
       <c r="H71" s="44"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="34" t="s">
         <v>8</v>
       </c>
@@ -11937,7 +11937,7 @@
       <c r="G72" s="28"/>
       <c r="H72" s="44"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" s="35" t="s">
         <v>10</v>
       </c>
@@ -11957,7 +11957,7 @@
       <c r="G73" s="28"/>
       <c r="H73" s="44"/>
     </row>
-    <row r="74" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15" thickBot="1">
       <c r="A74" s="36" t="s">
         <v>9</v>
       </c>
@@ -11966,8 +11966,8 @@
         <v>-0.12465434128806298</v>
       </c>
       <c r="C74" s="30">
-        <f>(C71-C67)/C67</f>
-        <v>0.78165992755225233</v>
+        <f>(C71-C67)</f>
+        <v>1.0685346056389626</v>
       </c>
       <c r="D74" s="27"/>
       <c r="E74" s="36" t="s">
@@ -11978,12 +11978,12 @@
         <v>0.21482547332560395</v>
       </c>
       <c r="G74" s="30">
-        <f>(G71-G67)/G67</f>
-        <v>0.35004891591021281</v>
+        <f>(G71-G67)</f>
+        <v>0.48198010702519367</v>
       </c>
       <c r="H74" s="44"/>
     </row>
-    <row r="75" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="15" thickTop="1">
       <c r="A75" s="27"/>
       <c r="B75" s="27"/>
       <c r="C75" s="27"/>
@@ -11993,7 +11993,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="44"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -12002,7 +12002,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -12011,7 +12011,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -12020,7 +12020,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -12029,7 +12029,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -12038,7 +12038,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -12047,7 +12047,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -12056,7 +12056,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
